--- a/thAI_CHECK.xlsx
+++ b/thAI_CHECK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Dropbox\covid _project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C516B9-11B1-43FC-8D41-06F5A11401FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3E5EDD-996F-485F-AD4D-5E4090C82A1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,85 +377,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>3.7313432835820897</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6217228464419478</c:v>
+                  <c:v>0.37453183520599254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4844720496894408</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8604651162790697</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.34375</c:v>
+                  <c:v>3.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2654028436018958</c:v>
+                  <c:v>0.47393364928909953</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.5151515151515151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2894736842105261</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8292682926829269</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.8072289156626506</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8229166666666667</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75757575757575757</c:v>
+                  <c:v>4.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1474654377880187</c:v>
+                  <c:v>2.3041474654377878</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6717062634989199</c:v>
+                  <c:v>1.5118790496760259</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3550135501355014</c:v>
+                  <c:v>8.6720867208672079</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9327354260089686</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.578947368421051</c:v>
+                  <c:v>5.9880239520958085</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.174418604651162</c:v>
+                  <c:v>5.728314238952537</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.438356164383563</c:v>
+                  <c:v>10.48951048951049</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.1743119266055047</c:v>
+                  <c:v>5.313496280552604</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.601941747572816</c:v>
+                  <c:v>13.224368499257057</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.692640692640694</c:v>
+                  <c:v>32.302405498281786</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.973561430793158</c:v>
+                  <c:v>13.832199546485262</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.935702199661591</c:v>
+                  <c:v>8.6885245901639347</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>23.060344827586206</c:v>
+                  <c:v>10.753768844221106</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>15.546218487394958</c:v>
+                  <c:v>8.7401574803149611</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.033003300330034</c:v>
+                  <c:v>7.7053344623200681</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>16.34182908545727</c:v>
@@ -922,40 +922,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>4.4504999999999999</c:v>
+                  <c:v>0.45050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0865</c:v>
+                  <c:v>5.0865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.153499999999999</c:v>
+                  <c:v>4.1534999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.6819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6959999999999997</c:v>
+                  <c:v>1.696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8479999999999999</c:v>
+                  <c:v>0.84799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4.6429999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6930000000000005</c:v>
+                  <c:v>-0.3069999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8424999999999994</c:v>
+                  <c:v>14.842499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6944999999999997</c:v>
+                  <c:v>2.6945000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.354500000000002</c:v>
+                  <c:v>16.354500000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.817499999999999</c:v>
+                  <c:v>39.817500000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>28.5215</c:v>
@@ -1370,43 +1370,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4504999999999999</c:v>
+                  <c:v>0.45050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0865</c:v>
+                  <c:v>5.0865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.153499999999999</c:v>
+                  <c:v>4.1534999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.6819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6959999999999997</c:v>
+                  <c:v>1.696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8479999999999999</c:v>
+                  <c:v>0.84799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.6429999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6930000000000005</c:v>
+                  <c:v>-0.3069999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8424999999999994</c:v>
+                  <c:v>14.842499999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6944999999999997</c:v>
+                  <c:v>2.6945000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.354500000000002</c:v>
+                  <c:v>16.354500000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.817499999999999</c:v>
+                  <c:v>39.817500000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>28.5215</c:v>
@@ -1587,43 +1587,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>141</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>146</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>147</c:v>
@@ -1807,82 +1807,82 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.450500000000005</c:v>
+                  <c:v>77.450500000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.537000000000006</c:v>
+                  <c:v>82.537000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.6905</c:v>
+                  <c:v>86.6905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.372500000000002</c:v>
+                  <c:v>88.372500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.0685</c:v>
+                  <c:v>90.0685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.9165</c:v>
+                  <c:v>90.916499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>114.5595</c:v>
+                  <c:v>95.5595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115.2525</c:v>
+                  <c:v>95.252499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>121.095</c:v>
+                  <c:v>110.095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>127.7895</c:v>
+                  <c:v>112.7895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>154.14400000000001</c:v>
+                  <c:v>129.14400000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>166.9615</c:v>
+                  <c:v>168.9615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>195.483</c:v>
+                  <c:v>197.483</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>308.3476</c:v>
+                  <c:v>310.3476</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>397.84230000000002</c:v>
+                  <c:v>399.84230000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>501.92790000000002</c:v>
+                  <c:v>503.92790000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>632.75150000000008</c:v>
+                  <c:v>634.75150000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>775.02160000000003</c:v>
+                  <c:v>777.02160000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>987.5136</c:v>
+                  <c:v>989.5136</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1158.2935</c:v>
+                  <c:v>1160.2935</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1392.6723999999999</c:v>
+                  <c:v>1394.6723999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1608.0494999999999</c:v>
+                  <c:v>1610.0494999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1832.5290999999997</c:v>
+                  <c:v>1834.5290999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2102.7288999999996</c:v>
+                  <c:v>2104.7288999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2202.3402999999998</c:v>
+                  <c:v>2204.3402999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2404.1210999999998</c:v>
+                  <c:v>2406.1210999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5166,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5216,15 +5216,14 @@
         <v>134</v>
       </c>
       <c r="D2" s="7">
-        <f>F2-61</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="8">
         <f>D2*100/C2</f>
-        <v>3.7313432835820897</v>
+        <v>0</v>
       </c>
       <c r="F2" s="7">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>9</v>
@@ -5245,14 +5244,14 @@
       </c>
       <c r="D3" s="7">
         <f>F3-F2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8">
         <f t="shared" ref="E3:E32" si="0">D3*100/C3</f>
-        <v>2.6217228464419478</v>
+        <v>0.37453183520599254</v>
       </c>
       <c r="F3" s="7">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>9</v>
@@ -5276,14 +5275,14 @@
       </c>
       <c r="D4" s="7">
         <f t="shared" ref="D4:D16" si="1">F4-F3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
         <f t="shared" si="0"/>
-        <v>2.4844720496894408</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7">
         <v>1598</v>
@@ -5293,7 +5292,7 @@
       </c>
       <c r="I4">
         <f>((H4*0.0265)+D4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10">
         <f>73+4</f>
@@ -5312,14 +5311,14 @@
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>1.8604651162790697</v>
+        <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="G5" s="7">
         <v>1615</v>
@@ -5330,11 +5329,11 @@
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I16" si="2">((H5*0.0265)+D5)</f>
-        <v>4.4504999999999999</v>
+        <v>0.45050000000000001</v>
       </c>
       <c r="J5" s="10">
         <f>I5+J4</f>
-        <v>81.450500000000005</v>
+        <v>77.450500000000005</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -5349,14 +5348,14 @@
       </c>
       <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>2.34375</v>
+        <v>3.125</v>
       </c>
       <c r="F6" s="7">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="G6" s="7">
         <v>1656</v>
@@ -5367,11 +5366,11 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>4.0865</v>
+        <v>5.0865</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" ref="J6:J32" si="4">I6+J5</f>
-        <v>85.537000000000006</v>
+        <v>82.537000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -5386,14 +5385,14 @@
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>4.2654028436018958</v>
+        <v>0.47393364928909953</v>
       </c>
       <c r="F7" s="7">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7">
         <v>1775</v>
@@ -5404,11 +5403,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>12.153499999999999</v>
+        <v>4.1534999999999993</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="4"/>
-        <v>97.6905</v>
+        <v>86.6905</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -5430,7 +5429,7 @@
         <v>1.5151515151515151</v>
       </c>
       <c r="F8" s="7">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7">
         <v>1763</v>
@@ -5445,7 +5444,7 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" si="4"/>
-        <v>99.372500000000002</v>
+        <v>88.372500000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -5460,14 +5459,14 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>3.2894736842105261</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7">
         <v>1827</v>
@@ -5478,11 +5477,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>6.6959999999999997</v>
+        <v>1.696</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="4"/>
-        <v>106.0685</v>
+        <v>90.0685</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -5497,14 +5496,14 @@
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>1.8292682926829269</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7">
         <v>1859</v>
@@ -5515,11 +5514,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>3.8479999999999999</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="4"/>
-        <v>109.9165</v>
+        <v>90.916499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -5541,7 +5540,7 @@
         <v>1.8072289156626506</v>
       </c>
       <c r="F11" s="7">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7">
         <v>1921</v>
@@ -5556,7 +5555,7 @@
       </c>
       <c r="J11" s="10">
         <f t="shared" si="4"/>
-        <v>114.5595</v>
+        <v>95.5595</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -5571,14 +5570,14 @@
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
-        <v>1.8229166666666667</v>
+        <v>1.5625</v>
       </c>
       <c r="F12" s="7">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7">
         <v>1683</v>
@@ -5589,11 +5588,11 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>0.6930000000000005</v>
+        <v>-0.3069999999999995</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="4"/>
-        <v>115.2525</v>
+        <v>95.252499999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -5608,14 +5607,14 @@
       </c>
       <c r="D13" s="7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
-        <v>0.75757575757575757</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="F13" s="7">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7">
         <v>1828</v>
@@ -5626,11 +5625,11 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>5.8424999999999994</v>
+        <v>14.842499999999999</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="4"/>
-        <v>121.095</v>
+        <v>110.095</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -5644,15 +5643,15 @@
         <v>217</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>F14-F13</f>
+        <v>5</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>4.1474654377880187</v>
+        <v>2.3041474654377878</v>
       </c>
       <c r="F14" s="7">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7">
         <v>1741</v>
@@ -5663,11 +5662,11 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>6.6944999999999997</v>
+        <v>2.6945000000000001</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="4"/>
-        <v>127.7895</v>
+        <v>112.7895</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -5682,14 +5681,14 @@
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="0"/>
-        <v>3.6717062634989199</v>
+        <v>1.5118790496760259</v>
       </c>
       <c r="F15" s="7">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="G15" s="7">
         <v>2094</v>
@@ -5700,11 +5699,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>26.354500000000002</v>
+        <v>16.354500000000002</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="4"/>
-        <v>154.14400000000001</v>
+        <v>129.14400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -5719,14 +5718,14 @@
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>1.3550135501355014</v>
+        <v>8.6720867208672079</v>
       </c>
       <c r="F16" s="7">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="G16" s="7">
         <v>2389</v>
@@ -5737,11 +5736,11 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>12.817499999999999</v>
+        <v>39.817500000000003</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="4"/>
-        <v>166.9615</v>
+        <v>168.9615</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -5752,14 +5751,14 @@
         <v>43906</v>
       </c>
       <c r="C17" s="7">
-        <v>669</v>
+        <v>500</v>
       </c>
       <c r="D17" s="7">
         <v>33</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="0"/>
-        <v>4.9327354260089686</v>
+        <v>6.6</v>
       </c>
       <c r="F17" s="7">
         <v>147</v>
@@ -5777,7 +5776,7 @@
       </c>
       <c r="J17" s="10">
         <f t="shared" si="4"/>
-        <v>195.483</v>
+        <v>197.483</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -5788,14 +5787,14 @@
         <v>43907</v>
       </c>
       <c r="C18" s="7">
-        <v>95</v>
+        <v>501</v>
       </c>
       <c r="D18" s="7">
         <v>30</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="0"/>
-        <v>31.578947368421051</v>
+        <v>5.9880239520958085</v>
       </c>
       <c r="F18" s="7">
         <v>177</v>
@@ -5813,7 +5812,7 @@
       </c>
       <c r="J18" s="10">
         <f t="shared" si="4"/>
-        <v>308.3476</v>
+        <v>310.3476</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -5824,14 +5823,14 @@
         <v>43908</v>
       </c>
       <c r="C19" s="7">
-        <v>344</v>
+        <v>611</v>
       </c>
       <c r="D19" s="7">
         <v>35</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="0"/>
-        <v>10.174418604651162</v>
+        <v>5.728314238952537</v>
       </c>
       <c r="F19" s="7">
         <v>212</v>
@@ -5849,7 +5848,7 @@
       </c>
       <c r="J19" s="10">
         <f t="shared" si="4"/>
-        <v>397.84230000000002</v>
+        <v>399.84230000000002</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -5860,14 +5859,14 @@
         <v>43909</v>
       </c>
       <c r="C20" s="7">
-        <v>365</v>
+        <v>572</v>
       </c>
       <c r="D20" s="7">
         <v>60</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="0"/>
-        <v>16.438356164383563</v>
+        <v>10.48951048951049</v>
       </c>
       <c r="F20" s="7">
         <v>272</v>
@@ -5885,7 +5884,7 @@
       </c>
       <c r="J20" s="10">
         <f t="shared" si="4"/>
-        <v>501.92790000000002</v>
+        <v>503.92790000000002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -5896,14 +5895,14 @@
         <v>43910</v>
       </c>
       <c r="C21" s="7">
-        <v>545</v>
+        <v>941</v>
       </c>
       <c r="D21" s="7">
         <v>50</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="0"/>
-        <v>9.1743119266055047</v>
+        <v>5.313496280552604</v>
       </c>
       <c r="F21" s="7">
         <v>322</v>
@@ -5921,7 +5920,7 @@
       </c>
       <c r="J21" s="10">
         <f t="shared" si="4"/>
-        <v>632.75150000000008</v>
+        <v>634.75150000000008</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -5932,14 +5931,14 @@
         <v>43911</v>
       </c>
       <c r="C22" s="7">
-        <v>412</v>
+        <v>673</v>
       </c>
       <c r="D22" s="7">
         <v>89</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="0"/>
-        <v>21.601941747572816</v>
+        <v>13.224368499257057</v>
       </c>
       <c r="F22" s="7">
         <v>411</v>
@@ -5957,7 +5956,7 @@
       </c>
       <c r="J22" s="10">
         <f t="shared" si="4"/>
-        <v>775.02160000000003</v>
+        <v>777.02160000000003</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -5968,14 +5967,14 @@
         <v>43912</v>
       </c>
       <c r="C23" s="7">
-        <v>462</v>
+        <v>582</v>
       </c>
       <c r="D23" s="7">
         <v>188</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="0"/>
-        <v>40.692640692640694</v>
+        <v>32.302405498281786</v>
       </c>
       <c r="F23" s="7">
         <v>599</v>
@@ -5993,7 +5992,7 @@
       </c>
       <c r="J23" s="10">
         <f t="shared" si="4"/>
-        <v>987.5136</v>
+        <v>989.5136</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -6004,14 +6003,14 @@
         <v>43913</v>
       </c>
       <c r="C24" s="7">
-        <v>643</v>
+        <v>882</v>
       </c>
       <c r="D24" s="7">
         <v>122</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="0"/>
-        <v>18.973561430793158</v>
+        <v>13.832199546485262</v>
       </c>
       <c r="F24" s="7">
         <v>721</v>
@@ -6029,7 +6028,7 @@
       </c>
       <c r="J24" s="10">
         <f t="shared" si="4"/>
-        <v>1158.2935</v>
+        <v>1160.2935</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -6040,14 +6039,14 @@
         <v>43914</v>
       </c>
       <c r="C25" s="7">
-        <v>591</v>
+        <v>1220</v>
       </c>
       <c r="D25" s="7">
         <v>106</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" si="0"/>
-        <v>17.935702199661591</v>
+        <f>D25*100/C25</f>
+        <v>8.6885245901639347</v>
       </c>
       <c r="F25" s="7">
         <v>827</v>
@@ -6065,7 +6064,7 @@
       </c>
       <c r="J25" s="10">
         <f t="shared" si="4"/>
-        <v>1392.6723999999999</v>
+        <v>1394.6723999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -6076,14 +6075,14 @@
         <v>43915</v>
       </c>
       <c r="C26" s="7">
-        <v>464</v>
+        <v>995</v>
       </c>
       <c r="D26" s="7">
         <v>107</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="0"/>
-        <v>23.060344827586206</v>
+        <f>D26*100/C26</f>
+        <v>10.753768844221106</v>
       </c>
       <c r="F26" s="7">
         <v>934</v>
@@ -6101,7 +6100,7 @@
       </c>
       <c r="J26" s="10">
         <f t="shared" si="4"/>
-        <v>1608.0494999999999</v>
+        <v>1610.0494999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -6112,14 +6111,14 @@
         <v>43916</v>
       </c>
       <c r="C27" s="7">
-        <v>714</v>
+        <v>1270</v>
       </c>
       <c r="D27" s="7">
         <v>111</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="0"/>
-        <v>15.546218487394958</v>
+        <v>8.7401574803149611</v>
       </c>
       <c r="F27" s="7">
         <v>1045</v>
@@ -6137,7 +6136,7 @@
       </c>
       <c r="J27" s="10">
         <f t="shared" si="4"/>
-        <v>1832.5290999999997</v>
+        <v>1834.5290999999997</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -6148,14 +6147,14 @@
         <v>43917</v>
       </c>
       <c r="C28" s="7">
-        <v>303</v>
+        <v>1181</v>
       </c>
       <c r="D28" s="7">
         <v>91</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="0"/>
-        <v>30.033003300330034</v>
+        <v>7.7053344623200681</v>
       </c>
       <c r="F28" s="7">
         <v>1136</v>
@@ -6173,7 +6172,7 @@
       </c>
       <c r="J28" s="10">
         <f t="shared" si="4"/>
-        <v>2102.7288999999996</v>
+        <v>2104.7288999999996</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -6210,7 +6209,7 @@
       </c>
       <c r="J29" s="10">
         <f t="shared" si="4"/>
-        <v>2202.3402999999998</v>
+        <v>2204.3402999999998</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -6247,7 +6246,7 @@
       </c>
       <c r="J30" s="10">
         <f t="shared" si="4"/>
-        <v>2404.1210999999998</v>
+        <v>2406.1210999999998</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -6284,7 +6283,7 @@
       </c>
       <c r="J31" s="10">
         <f t="shared" si="4"/>
-        <v>2620.9447</v>
+        <v>2622.9447</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -6321,7 +6320,7 @@
       </c>
       <c r="J32" s="10">
         <f t="shared" si="4"/>
-        <v>2796.1122999999998</v>
+        <v>2798.1122999999998</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.35">
